--- a/example_data/EMA/label_corrected/atripla-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/atripla-epar-product-information_en.xlsx
@@ -5199,7 +5199,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>populations - pediatric || pregnancy</t>
+          <t>pregnancy || populations - pediatric</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6412,7 +6412,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I162" t="inlineStr"/>
@@ -7882,7 +7882,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>populations - adolescent || populations - pediatric</t>
+          <t>populations - pediatric || populations - adolescent</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
